--- a/patient_data/patient_57.xlsx
+++ b/patient_data/patient_57.xlsx
@@ -610,19 +610,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1007,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1084,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1161,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2331,19 +2331,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2387,16 +2387,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
